--- a/UAK_1/BOM/BOM_UAK_1С.xlsx
+++ b/UAK_1/BOM/BOM_UAK_1С.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Toxa/UAK/UAK_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Toxa/UAK/UAK_1/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13560"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
   <si>
     <t xml:space="preserve">    A1</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>Кол-во</t>
+  </si>
+  <si>
+    <t>кол-во на 50+10%</t>
   </si>
 </sst>
 </file>
@@ -374,12 +377,24 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -394,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -402,15 +417,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -727,629 +756,753 @@
     <col min="4" max="4" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="11">
+        <f>(D2*50)*1.1</f>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G31" si="0">(D3*50)*1.1</f>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="10">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="11">
+        <f>(D4*50)*1.05</f>
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="0"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="10">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="E6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="11">
+        <f>(D6*50)*1.05</f>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="E7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="10">
         <v>2</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="F15" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="11">
+        <f>(D15*50)*1.1</f>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="0"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="G17" s="5">
+        <f t="shared" si="0"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="10">
         <v>10</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="E18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="10">
         <v>8</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="E19" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="0"/>
+        <v>440.00000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="0"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="10">
         <v>2</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="E22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="0"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="10">
         <v>2</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="E24" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="11">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" si="0"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>4</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="E26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="5">
+        <f>(D26*50)*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>2</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="G27" s="5">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="G28" s="5">
+        <f t="shared" si="0"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="G29" s="5">
+        <f t="shared" si="0"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>2</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="G30" s="5">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>5</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="5">
+        <f>(D31*50)*1.05</f>
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
